--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>578604019979.7795</v>
+        <v>658635213881.7474</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>192935713287.9787</v>
+        <v>213648463155.1176</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>84197413447.3663</v>
+        <v>84291615051.44429</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32201997216.81027</v>
+        <v>34149224073.46932</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27511566886.78043</v>
+        <v>29763354750.16835</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25535798696.84357</v>
+        <v>25147785370.52747</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11203658469.09467</v>
+        <v>12810329657.90201</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8854891899.827383</v>
+        <v>9795719791.685951</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8479425903.814398</v>
+        <v>9346057965.164358</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8071139607.940892</v>
+        <v>8190902529.1807</v>
       </c>
     </row>
     <row r="12">
@@ -612,37 +612,37 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7135310392.814843</v>
+        <v>7335984498.418167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dai</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DAI-USD</t>
+          <t>MATIC-USD</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5348728900.169457</v>
+        <v>5842193209.048368</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MATIC-USD</t>
+          <t>LINK-USD</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5001681884.497235</v>
+        <v>5555046571.631498</v>
       </c>
     </row>
     <row r="15">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4835413385.104083</v>
+        <v>5502141881.324093</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Dai</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DOT-USD</t>
+          <t>DAI-USD</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4806976383.729829</v>
+        <v>5346266803.592254</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>658635213881.7474</v>
+        <v>658352313258.7543</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>213648463155.1176</v>
+        <v>213442894232.639</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>84291615051.44429</v>
+        <v>84286479133.81744</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34149224073.46932</v>
+        <v>34164644572.66166</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29763354750.16835</v>
+        <v>29854210078.56976</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25147785370.52747</v>
+        <v>25147468736.90444</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12810329657.90201</v>
+        <v>12822792468.38154</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9795719791.685951</v>
+        <v>9809135720.351103</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9346057965.164358</v>
+        <v>9356571675.282593</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8190902529.1807</v>
+        <v>8193279980.061813</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7335984498.418167</v>
+        <v>7339386720.365101</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5842193209.048368</v>
+        <v>5842478283.745811</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5555046571.631498</v>
+        <v>5559553646.899556</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5502141881.324093</v>
+        <v>5502725656.295998</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5346266803.592254</v>
+        <v>5346120983.163179</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>658352313258.7543</v>
+        <v>659539479673.8038</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>213442894232.639</v>
+        <v>213757659248.477</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>84286479133.81744</v>
+        <v>84285600216.22925</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34164644572.66166</v>
+        <v>34179996718.18207</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29854210078.56976</v>
+        <v>29909679290.60423</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25147468736.90444</v>
+        <v>25144710485.16836</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12822792468.38154</v>
+        <v>12767757826.67867</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9809135720.351103</v>
+        <v>9800973769.499292</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9356571675.282593</v>
+        <v>9401494280.101391</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8193279980.061813</v>
+        <v>8196636855.19092</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7339386720.365101</v>
+        <v>7345281800.684978</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5842478283.745811</v>
+        <v>5829636904.39269</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5559553646.899556</v>
+        <v>5557840070.772294</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5502725656.295998</v>
+        <v>5504211676.444504</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5346120983.163179</v>
+        <v>5346028921.749742</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>659539479673.8038</v>
+        <v>659420405322.8138</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>213757659248.477</v>
+        <v>213676499053.9815</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>84285600216.22925</v>
+        <v>84306066965.12166</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34179996718.18207</v>
+        <v>34225983285.64975</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29909679290.60423</v>
+        <v>29942775706.05581</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25144710485.16836</v>
+        <v>25150099800.93017</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12767757826.67867</v>
+        <v>12755468422.92838</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9800973769.499292</v>
+        <v>9813164930.646208</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9401494280.101391</v>
+        <v>9433108085.306992</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8196636855.19092</v>
+        <v>8202142386.595967</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7345281800.684978</v>
+        <v>7355538465.056413</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5829636904.39269</v>
+        <v>5832194955.726317</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5557840070.772294</v>
+        <v>5583353377.168786</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5504211676.444504</v>
+        <v>5509223803.837206</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5346028921.749742</v>
+        <v>5347949006.775401</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -58,16 +58,16 @@
     <t>Toncoin</t>
   </si>
   <si>
+    <t>Chainlink</t>
+  </si>
+  <si>
     <t>Polygon</t>
   </si>
   <si>
-    <t>Chainlink</t>
-  </si>
-  <si>
     <t>Wrapped Bitcoin</t>
   </si>
   <si>
-    <t>Dai</t>
+    <t>Polkadot</t>
   </si>
   <si>
     <t>BTC-USD</t>
@@ -103,16 +103,16 @@
     <t>TON-USD</t>
   </si>
   <si>
+    <t>LINK-USD</t>
+  </si>
+  <si>
     <t>MATIC-USD</t>
   </si>
   <si>
-    <t>LINK-USD</t>
-  </si>
-  <si>
     <t>WBTC-USD</t>
   </si>
   <si>
-    <t>DAI-USD</t>
+    <t>DOT-USD</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>662153919805.8962</v>
+        <v>667481036535.8472</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -506,7 +506,7 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>214670624083.8028</v>
+        <v>216164763891.7112</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -517,7 +517,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>84297525672.00328</v>
+        <v>84284224915.32452</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -528,7 +528,7 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>34283990582.80655</v>
+        <v>34610024098.47021</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -539,7 +539,7 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>29898981363.4091</v>
+        <v>29816346122.12012</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -550,7 +550,7 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>25086252129.6169</v>
+        <v>25092265828.22784</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -561,7 +561,7 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>12624958104.41818</v>
+        <v>13280642821.8183</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -572,7 +572,7 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>9843473977.850145</v>
+        <v>9994479857.705906</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -583,7 +583,7 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>9435354260.451193</v>
+        <v>9473857229.459873</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -594,7 +594,7 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>8202753618.690736</v>
+        <v>8240592331.9852</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -605,7 +605,7 @@
         <v>28</v>
       </c>
       <c r="C12">
-        <v>7306042720.390573</v>
+        <v>7353642028.759882</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -616,7 +616,7 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>5820807342.399495</v>
+        <v>6278567002.412182</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -627,7 +627,7 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <v>5783482676.888522</v>
+        <v>5914919560.103052</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>5574112092.889112</v>
+        <v>5600297319.235932</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -649,7 +649,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>5345451533.691011</v>
+        <v>5552575781.656272</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -495,7 +495,7 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>667481036535.8472</v>
+        <v>666663244656.6726</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -506,7 +506,7 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>216164763891.7112</v>
+        <v>215894388530.8438</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -517,7 +517,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>84284224915.32452</v>
+        <v>84259407156.79712</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -528,7 +528,7 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>34610024098.47021</v>
+        <v>34490373188.7056</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -539,7 +539,7 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>29816346122.12012</v>
+        <v>29812930074.87981</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -550,7 +550,7 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>25092265828.22784</v>
+        <v>25079116536.25563</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -561,7 +561,7 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>13280642821.8183</v>
+        <v>13075337557.07294</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -572,7 +572,7 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>9994479857.705906</v>
+        <v>9938396539.221432</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -583,7 +583,7 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>9473857229.459873</v>
+        <v>9414554630.551594</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -594,7 +594,7 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>8240592331.9852</v>
+        <v>8233547006.034203</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -605,7 +605,7 @@
         <v>28</v>
       </c>
       <c r="C12">
-        <v>7353642028.759882</v>
+        <v>7345088469.253864</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -616,7 +616,7 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>6278567002.412182</v>
+        <v>6362933528.338446</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -627,7 +627,7 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <v>5914919560.103052</v>
+        <v>5941956028.061554</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>5600297319.235932</v>
+        <v>5606911520.500404</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -649,7 +649,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>5552575781.656272</v>
+        <v>5548924012.004469</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -67,7 +67,7 @@
     <t>Wrapped Bitcoin</t>
   </si>
   <si>
-    <t>Polkadot</t>
+    <t>Dai</t>
   </si>
   <si>
     <t>BTC-USD</t>
@@ -112,7 +112,7 @@
     <t>WBTC-USD</t>
   </si>
   <si>
-    <t>DOT-USD</t>
+    <t>DAI-USD</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>666663244656.6726</v>
+        <v>667110329317.8585</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -506,7 +506,7 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>215894388530.8438</v>
+        <v>215741838217.8916</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -517,7 +517,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>84259407156.79712</v>
+        <v>84537893987.737</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -528,7 +528,7 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>34490373188.7056</v>
+        <v>34701356782.98159</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -539,7 +539,7 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>29812930074.87981</v>
+        <v>29596095256.35921</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -550,7 +550,7 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>25079116536.25563</v>
+        <v>25098292739.90195</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -561,7 +561,7 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>13075337557.07294</v>
+        <v>13760373926.07715</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -572,7 +572,7 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>9938396539.221432</v>
+        <v>10211926471.06009</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -583,7 +583,7 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>9414554630.551594</v>
+        <v>10141885921.13766</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -594,7 +594,7 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>8233547006.034203</v>
+        <v>8327370113.840555</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -605,7 +605,7 @@
         <v>28</v>
       </c>
       <c r="C12">
-        <v>7345088469.253864</v>
+        <v>7169555497.918983</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -616,7 +616,7 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>6362933528.338446</v>
+        <v>6217803225.309694</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -627,7 +627,7 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <v>5941956028.061554</v>
+        <v>5833348926.360915</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>5606911520.500404</v>
+        <v>5592650380.386826</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -649,7 +649,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>5548924012.004469</v>
+        <v>5348447881.94701</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>714580396488.1063</v>
+        <v>707764416716.2303</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>246177523190.341</v>
+        <v>241861615405.5887</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>87116031200.74547</v>
+        <v>87347430651.04588</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37410286527.14858</v>
+        <v>37376344664.52251</v>
       </c>
     </row>
     <row r="6">
@@ -522,37 +522,37 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35398108612.24805</v>
+        <v>34322046171.68675</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>USDC</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>USDC-USD</t>
+          <t>SOL-USD</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24023558993.11394</v>
+        <v>26604916001.90222</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>USDC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SOL-USD</t>
+          <t>USDC-USD</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23301455943.60514</v>
+        <v>23931425825.1214</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12918342440.65112</v>
+        <v>13037134434.13486</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10583769483.99507</v>
+        <v>10583343498.86235</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9392119720.793606</v>
+        <v>9261916358.333483</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8792621553.59626</v>
+        <v>8763528480.611448</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8096914969.536195</v>
+        <v>8318387938.914449</v>
       </c>
     </row>
     <row r="14">
@@ -642,37 +642,37 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8087721301.526255</v>
+        <v>7889662081.524138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DOT-USD</t>
+          <t>AVAX-USD</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6768882186.68738</v>
+        <v>6959721541.2058</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AVAX-USD</t>
+          <t>DOT-USD</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6146855809.299229</v>
+        <v>6774478471.431178</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>707764416716.2303</v>
+        <v>708479008611.6012</v>
       </c>
     </row>
     <row r="3">
@@ -477,202 +477,352 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>241861615405.5887</v>
+        <v>242091520445.6097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tether USDt</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>USDT-USD</t>
+          <t>BNB-USD</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>87347430651.04588</v>
+        <v>38255025955.62946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>XRP</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BNB-USD</t>
+          <t>XRP-USD</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37376344664.52251</v>
+        <v>34204919250.52261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>XRP</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>XRP-USD</t>
+          <t>SOL-USD</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34322046171.68675</v>
+        <v>26411865956.14902</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>Cardano</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SOL-USD</t>
+          <t>ADA-USD</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26604916001.90222</v>
+        <v>13006021840.74045</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>USDC</t>
+          <t>Dogecoin</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USDC-USD</t>
+          <t>DOGE-USD</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23931425825.1214</v>
+        <v>10523736344.92889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>TRON</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ADA-USD</t>
+          <t>TRX-USD</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>13037134434.13486</v>
+        <v>9236740082.654627</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dogecoin</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DOGE-USD</t>
+          <t>MATIC-USD</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10583343498.86235</v>
+        <v>8378001144.125881</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TRON</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRX-USD</t>
+          <t>LINK-USD</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9261916358.333483</v>
+        <v>8218904526.219995</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MATIC-USD</t>
+          <t>TON-USD</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8763528480.611448</v>
+        <v>7867658202.653782</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LINK-USD</t>
+          <t>AVAX-USD</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8318387938.914449</v>
+        <v>7018185773.453343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TON-USD</t>
+          <t>DOT-USD</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7889662081.524138</v>
+        <v>6752494904.928741</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Wrapped Bitcoin</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AVAX-USD</t>
+          <t>WBTC-USD</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6959721541.2058</v>
+        <v>5922102614.900625</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Litecoin</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DOT-USD</t>
+          <t>LTC-USD</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6774478471.431178</v>
+        <v>5318515548.766405</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Shiba Inu</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SHIB-USD</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5059433485.511156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bitcoin Cash</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BCH-USD</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4556617892.441616</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UNUS SED LEO</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LEO-USD</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3707281230.704166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Cosmos</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ATOM-USD</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3575037140.071479</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>OKB</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>OKB-USD</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3561330600.496291</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Stellar</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>XLM-USD</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3356540063.866071</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Monero</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>XMR-USD</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3000328346.07416</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ethereum Classic</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ETC-USD</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2795690272.088627</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CRO-USD</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2563723725.813462</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Kaspa</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>KAS-USD</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2514361673.708901</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>708479008611.6012</v>
+        <v>712204551721.0481</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>242091520445.6097</v>
+        <v>242724325270.2232</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38255025955.62946</v>
+        <v>38347168320.21263</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34204919250.52261</v>
+        <v>34385820455.79092</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26411865956.14902</v>
+        <v>26538465526.84064</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13006021840.74045</v>
+        <v>13131836977.62074</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10523736344.92889</v>
+        <v>10570140100.82911</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9236740082.654627</v>
+        <v>9249568473.746784</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8378001144.125881</v>
+        <v>8465833466.668921</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8218904526.219995</v>
+        <v>8301810750.139015</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7867658202.653782</v>
+        <v>7961214387.485915</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7018185773.453343</v>
+        <v>7217284884.089936</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6752494904.928741</v>
+        <v>6794857449.435575</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5922102614.900625</v>
+        <v>5954412669.867033</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5318515548.766405</v>
+        <v>5340065056.106133</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5059433485.511156</v>
+        <v>5094964998.879547</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4556617892.441616</v>
+        <v>4571873154.264347</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3707281230.704166</v>
+        <v>3768600131.609521</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3575037140.071479</v>
+        <v>3614769306.166145</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3561330600.496291</v>
+        <v>3580676608.937095</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3356540063.866071</v>
+        <v>3373783328.34027</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3000328346.07416</v>
+        <v>3009527136.437813</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2795690272.088627</v>
+        <v>2805664665.719321</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2563723725.813462</v>
+        <v>2602614942.655396</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2514361673.708901</v>
+        <v>2499993416.47157</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>712204551721.0481</v>
+        <v>713563464104.186</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>242724325270.2232</v>
+        <v>242146645403.8686</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38347168320.21263</v>
+        <v>38174700169.61286</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34385820455.79092</v>
+        <v>34005885833.44946</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26538465526.84064</v>
+        <v>25970072646.59355</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13131836977.62074</v>
+        <v>13023263930.09267</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10570140100.82911</v>
+        <v>10493072634.33642</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9249568473.746784</v>
+        <v>9145811372.561813</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8465833466.668921</v>
+        <v>8270626717.555571</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8301810750.139015</v>
+        <v>8262836482.711392</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7961214387.485915</v>
+        <v>7959806147.421469</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7217284884.089936</v>
+        <v>7200540638.697069</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6794857449.435575</v>
+        <v>7030168939.829266</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5954412669.867033</v>
+        <v>5960036077.02873</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5340065056.106133</v>
+        <v>5320876090.139025</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5094964998.879547</v>
+        <v>5077206141.988463</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4571873154.264347</v>
+        <v>4562833542.936046</v>
       </c>
     </row>
     <row r="19">
@@ -717,37 +717,37 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3768600131.609521</v>
+        <v>3776950579.87639</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATOM-USD</t>
+          <t>OKB-USD</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3614769306.166145</v>
+        <v>3577651890.462599</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>OKB-USD</t>
+          <t>ATOM-USD</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3580676608.937095</v>
+        <v>3566107272.85817</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3373783328.34027</v>
+        <v>3346251047.321941</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3009527136.437813</v>
+        <v>3003344669.262929</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2805664665.719321</v>
+        <v>2787661882.002034</v>
       </c>
     </row>
     <row r="25">
@@ -807,22 +807,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2602614942.655396</v>
+        <v>2585208079.893143</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>KAS-USD</t>
+          <t>FIL-USD</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2499993416.47157</v>
+        <v>2384824691.473649</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>713563464104.186</v>
+        <v>733006206290.2766</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>242146645403.8686</v>
+        <v>246027458445.7996</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38174700169.61286</v>
+        <v>38288155320.38718</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34005885833.44946</v>
+        <v>34550736489.83262</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25970072646.59355</v>
+        <v>27983153894.43178</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13023263930.09267</v>
+        <v>13258735176.62395</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10493072634.33642</v>
+        <v>10677601142.78642</v>
       </c>
     </row>
     <row r="9">
@@ -567,37 +567,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9145811372.561813</v>
+        <v>9186857589.440948</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MATIC-USD</t>
+          <t>LINK-USD</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8270626717.555571</v>
+        <v>8443581512.366194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LINK-USD</t>
+          <t>MATIC-USD</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8262836482.711392</v>
+        <v>8428675931.057423</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7959806147.421469</v>
+        <v>8116098098.534303</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7200540638.697069</v>
+        <v>7356541480.021262</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7030168939.829266</v>
+        <v>7002337482.612908</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5960036077.02873</v>
+        <v>6142891204.468773</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5320876090.139025</v>
+        <v>5434967706.614725</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5077206141.988463</v>
+        <v>5176951328.968423</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4562833542.936046</v>
+        <v>4621781663.473914</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3776950579.87639</v>
+        <v>3774590863.917698</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3577651890.462599</v>
+        <v>3594864910.98273</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3566107272.85817</v>
+        <v>3592408650.38277</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3346251047.321941</v>
+        <v>3389512290.447855</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3003344669.262929</v>
+        <v>3040998226.731361</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2787661882.002034</v>
+        <v>2837087455.626977</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2585208079.893143</v>
+        <v>2589439101.553806</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2384824691.473649</v>
+        <v>2471166048.952417</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>733006206290.2766</v>
+        <v>737133302290.2677</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>246027458445.7996</v>
+        <v>247244493778.9961</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38288155320.38718</v>
+        <v>38390659845.19044</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34550736489.83262</v>
+        <v>34685910398.30289</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27983153894.43178</v>
+        <v>27532074178.23908</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13258735176.62395</v>
+        <v>13393577812.97504</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10677601142.78642</v>
+        <v>10819894707.74953</v>
       </c>
     </row>
     <row r="9">
@@ -567,37 +567,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9186857589.440948</v>
+        <v>9242314400.824749</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LINK-USD</t>
+          <t>MATIC-USD</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8443581512.366194</v>
+        <v>8507732893.082836</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MATIC-USD</t>
+          <t>LINK-USD</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8428675931.057423</v>
+        <v>8325744672.079366</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8116098098.534303</v>
+        <v>8189957692.931383</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7356541480.021262</v>
+        <v>7354641270.491064</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7002337482.612908</v>
+        <v>6982621694.335486</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6142891204.468773</v>
+        <v>6178344669.330246</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5434967706.614725</v>
+        <v>5463567574.120149</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5176951328.968423</v>
+        <v>5176763885.483999</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4621781663.473914</v>
+        <v>4682341026.782693</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3774590863.917698</v>
+        <v>3777671236.637238</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3594864910.98273</v>
+        <v>3648354300.80387</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3592408650.38277</v>
+        <v>3614419588.569764</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3389512290.447855</v>
+        <v>3398722194.285174</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3040998226.731361</v>
+        <v>2979199919.429708</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2837087455.626977</v>
+        <v>2856082645.519599</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2589439101.553806</v>
+        <v>2624592537.812566</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2471166048.952417</v>
+        <v>2522164756.451115</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>737133302290.2677</v>
+        <v>719536829972.2048</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>247244493778.9961</v>
+        <v>244206525520.8783</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38390659845.19044</v>
+        <v>37859945782.87637</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34685910398.30289</v>
+        <v>33915828443.44218</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27532074178.23908</v>
+        <v>26526553149.50745</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13393577812.97504</v>
+        <v>13824714680.37449</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10819894707.74953</v>
+        <v>11189935570.81735</v>
       </c>
     </row>
     <row r="9">
@@ -567,37 +567,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9242314400.824749</v>
+        <v>9165671380.355772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MATIC-USD</t>
+          <t>AVAX-USD</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8507732893.082836</v>
+        <v>8293800081.851548</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LINK-USD</t>
+          <t>MATIC-USD</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8325744672.079366</v>
+        <v>8283365709.063359</v>
       </c>
     </row>
     <row r="12">
@@ -612,22 +612,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8189957692.931383</v>
+        <v>8010828924.011144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AVAX-USD</t>
+          <t>LINK-USD</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7354641270.491064</v>
+        <v>7985886591.259349</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6982621694.335486</v>
+        <v>7060867585.842254</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6178344669.330246</v>
+        <v>6018844475.097538</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5463567574.120149</v>
+        <v>5360223441.43322</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5176763885.483999</v>
+        <v>5221139601.473591</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4682341026.782693</v>
+        <v>4596806846.195675</v>
       </c>
     </row>
     <row r="19">
@@ -717,37 +717,37 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3777671236.637238</v>
+        <v>3750487646.599951</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>OKB-USD</t>
+          <t>ATOM-USD</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3648354300.80387</v>
+        <v>3715654109.491059</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATOM-USD</t>
+          <t>OKB-USD</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3614419588.569764</v>
+        <v>3523067013.188245</v>
       </c>
     </row>
     <row r="22">
@@ -762,67 +762,67 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3398722194.285174</v>
+        <v>3377547916.808996</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>XMR-USD</t>
+          <t>KAS-USD</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2979199919.429708</v>
+        <v>3001318881.208693</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ETC-USD</t>
+          <t>XMR-USD</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2856082645.519599</v>
+        <v>2946760695.065717</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CRO-USD</t>
+          <t>ETC-USD</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2624592537.812566</v>
+        <v>2876157252.276538</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FIL-USD</t>
+          <t>CRO-USD</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2522164756.451115</v>
+        <v>2513593377.987969</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>719536829972.2048</v>
+        <v>721202497449.1852</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>244206525520.8783</v>
+        <v>244685368352.3357</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37859945782.87637</v>
+        <v>37832035877.15541</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33915828443.44218</v>
+        <v>33930139813.33422</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26526553149.50745</v>
+        <v>26502594024.89571</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13824714680.37449</v>
+        <v>13932760853.96851</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11189935570.81735</v>
+        <v>11143606318.32923</v>
       </c>
     </row>
     <row r="9">
@@ -567,37 +567,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9165671380.355772</v>
+        <v>9172445970.432299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AVAX-USD</t>
+          <t>MATIC-USD</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8293800081.851548</v>
+        <v>8288439414.011463</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MATIC-USD</t>
+          <t>AVAX-USD</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8283365709.063359</v>
+        <v>8286989881.493361</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8010828924.011144</v>
+        <v>8057833605.645318</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7985886591.259349</v>
+        <v>8005791334.873327</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7060867585.842254</v>
+        <v>7089270478.055191</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6018844475.097538</v>
+        <v>6024677236.291335</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5360223441.43322</v>
+        <v>5363446399.970418</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5221139601.473591</v>
+        <v>5206001255.311966</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4596806846.195675</v>
+        <v>4595203878.57365</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3750487646.599951</v>
+        <v>3719839375.908229</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3715654109.491059</v>
+        <v>3706033919.912179</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3523067013.188245</v>
+        <v>3521926218.888741</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3377547916.808996</v>
+        <v>3383257432.909583</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3001318881.208693</v>
+        <v>3017812634.355353</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2946760695.065717</v>
+        <v>2951921492.128325</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2876157252.276538</v>
+        <v>2881111534.018945</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2513593377.987969</v>
+        <v>2525262868.699377</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>721202497449.1852</v>
+        <v>713688901027.9006</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>244685368352.3357</v>
+        <v>240904302203.1317</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37832035877.15541</v>
+        <v>37421036288.88834</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33930139813.33422</v>
+        <v>33516769668.61184</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26502594024.89571</v>
+        <v>25941175676.57832</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13932760853.96851</v>
+        <v>13491724901.42055</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11143606318.32923</v>
+        <v>10948878600.2546</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9172445970.432299</v>
+        <v>9133398904.990887</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8288439414.011463</v>
+        <v>8162374780.375494</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8286989881.493361</v>
+        <v>8110987920.436409</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8057833605.645318</v>
+        <v>7935764574.283823</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8005791334.873327</v>
+        <v>7888159434.931012</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7089270478.055191</v>
+        <v>7004567269.532668</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6024677236.291335</v>
+        <v>5970710377.514452</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5363446399.970418</v>
+        <v>5305017541.105283</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5206001255.311966</v>
+        <v>5127623626.674</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4595203878.57365</v>
+        <v>4542817292.301433</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3719839375.908229</v>
+        <v>3760213762.134553</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3706033919.912179</v>
+        <v>3664101041.967874</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3521926218.888741</v>
+        <v>3485833767.538836</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3383257432.909583</v>
+        <v>3351316873.553715</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3017812634.355353</v>
+        <v>2964508064.322744</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2951921492.128325</v>
+        <v>2928518666.515219</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2881111534.018945</v>
+        <v>2835973127.381089</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2525262868.699377</v>
+        <v>2482378317.382869</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>713688901027.9006</v>
+        <v>715509159392.6465</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>240904302203.1317</v>
+        <v>241623415022.6552</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37421036288.88834</v>
+        <v>37554370136.72961</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33516769668.61184</v>
+        <v>33477132336.62965</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25941175676.57832</v>
+        <v>26038436710.0121</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13491724901.42055</v>
+        <v>13472000219.39171</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10948878600.2546</v>
+        <v>10955080069.82465</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9133398904.990887</v>
+        <v>9136605181.727404</v>
       </c>
     </row>
     <row r="10">
@@ -582,37 +582,37 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8162374780.375494</v>
+        <v>8223463310.462825</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AVAX-USD</t>
+          <t>TON-USD</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8110987920.436409</v>
+        <v>7958564816.145273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TON-USD</t>
+          <t>AVAX-USD</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7935764574.283823</v>
+        <v>7917546994.298736</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7888159434.931012</v>
+        <v>7900287790.455666</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7004567269.532668</v>
+        <v>7030341408.91466</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5970710377.514452</v>
+        <v>5989226319.711146</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5305017541.105283</v>
+        <v>5317484174.279642</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5127623626.674</v>
+        <v>5128624671.328731</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4542817292.301433</v>
+        <v>4612962945.566778</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3760213762.134553</v>
+        <v>3760143135.833755</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3664101041.967874</v>
+        <v>3662337498.994668</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3485833767.538836</v>
+        <v>3472774900.256917</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3351316873.553715</v>
+        <v>3355205943.989615</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2964508064.322744</v>
+        <v>2957790267.110532</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2928518666.515219</v>
+        <v>2940927087.741832</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2835973127.381089</v>
+        <v>2844740954.661511</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2482378317.382869</v>
+        <v>2500779217.874931</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>715509159392.6465</v>
+        <v>707906016350.917</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>241623415022.6552</v>
+        <v>238576545449.2376</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37554370136.72961</v>
+        <v>37161313028.19727</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33477132336.62965</v>
+        <v>33327875606.73561</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26038436710.0121</v>
+        <v>26128119273.39835</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13472000219.39171</v>
+        <v>13335097921.62567</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10955080069.82465</v>
+        <v>11220108590.26807</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9136605181.727404</v>
+        <v>9111227859.364193</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8223463310.462825</v>
+        <v>8035719462.267957</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7958564816.145273</v>
+        <v>7981389751.144408</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7917546994.298736</v>
+        <v>7913296108.926406</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7900287790.455666</v>
+        <v>7790295317.02891</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7030341408.91466</v>
+        <v>6869144465.276965</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5989226319.711146</v>
+        <v>5930543393.709435</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5317484174.279642</v>
+        <v>5260794442.867391</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5128624671.328731</v>
+        <v>5114274252.125801</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4612962945.566778</v>
+        <v>4590289469.593143</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3760143135.833755</v>
+        <v>3746615946.852252</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3662337498.994668</v>
+        <v>3697893509.232855</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3472774900.256917</v>
+        <v>3432385330.672878</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3355205943.989615</v>
+        <v>3338026702.59357</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2957790267.110532</v>
+        <v>2932777445.059374</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2940927087.741832</v>
+        <v>2932102011.75055</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2844740954.661511</v>
+        <v>2814100955.769952</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2500779217.874931</v>
+        <v>2457346526.566064</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>707906016350.917</v>
+        <v>709599331094.9697</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>238576545449.2376</v>
+        <v>232009741643.4652</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37161313028.19727</v>
+        <v>36763362405.97121</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33327875606.73561</v>
+        <v>32303492845.14954</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26128119273.39835</v>
+        <v>23863430866.82423</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13335097921.62567</v>
+        <v>12826871086.8618</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11220108590.26807</v>
+        <v>11677096606.99001</v>
       </c>
     </row>
     <row r="9">
@@ -567,37 +567,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9111227859.364193</v>
+        <v>9088763660.586021</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MATIC-USD</t>
+          <t>TON-USD</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8035719462.267957</v>
+        <v>7814775280.991043</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TON-USD</t>
+          <t>MATIC-USD</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7981389751.144408</v>
+        <v>7539009532.292098</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7913296108.926406</v>
+        <v>7533781949.363321</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7790295317.02891</v>
+        <v>7408357493.749443</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6869144465.276965</v>
+        <v>6602397511.290756</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5930543393.709435</v>
+        <v>5958607945.875978</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5260794442.867391</v>
+        <v>5111727373.900389</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5114274252.125801</v>
+        <v>5062042475.280413</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4590289469.593143</v>
+        <v>4431124989.914836</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3746615946.852252</v>
+        <v>3770368267.006455</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3697893509.232855</v>
+        <v>3456637581.265154</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3432385330.672878</v>
+        <v>3350340934.019464</v>
       </c>
     </row>
     <row r="22">
@@ -762,52 +762,52 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3338026702.59357</v>
+        <v>3259399994.280393</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KAS-USD</t>
+          <t>XMR-USD</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2932777445.059374</v>
+        <v>2984873211.79517</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>XMR-USD</t>
+          <t>ETC-USD</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2932102011.75055</v>
+        <v>2726804834.093751</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ETC-USD</t>
+          <t>KAS-USD</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2814100955.769952</v>
+        <v>2634899949.649961</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2457346526.566064</v>
+        <v>2427815139.415774</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>709599331094.9697</v>
+        <v>712403474328.6237</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>232009741643.4652</v>
+        <v>233060734699.9614</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36763362405.97121</v>
+        <v>36733836442.48392</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32303492845.14954</v>
+        <v>32341722829.58475</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23863430866.82423</v>
+        <v>23766798908.51626</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12826871086.8618</v>
+        <v>12654297692.55502</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11677096606.99001</v>
+        <v>11414047453.66166</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9088763660.586021</v>
+        <v>9054307447.092562</v>
       </c>
     </row>
     <row r="10">
@@ -582,37 +582,37 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7814775280.991043</v>
+        <v>7832005744.651767</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MATIC-USD</t>
+          <t>AVAX-USD</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7539009532.292098</v>
+        <v>7552872747.33217</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AVAX-USD</t>
+          <t>MATIC-USD</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7533781949.363321</v>
+        <v>7422299702.959957</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7408357493.749443</v>
+        <v>7357838350.242954</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6602397511.290756</v>
+        <v>6370003276.308003</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5958607945.875978</v>
+        <v>5948426181.785741</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5111727373.900389</v>
+        <v>5098121447.229634</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5062042475.280413</v>
+        <v>5007129192.623631</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4431124989.914836</v>
+        <v>4401045245.064432</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3770368267.006455</v>
+        <v>3776941243.543385</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3456637581.265154</v>
+        <v>3403348210.570119</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3350340934.019464</v>
+        <v>3388918496.292229</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3259399994.280393</v>
+        <v>3272536859.50116</v>
       </c>
     </row>
     <row r="23">
@@ -777,37 +777,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2984873211.79517</v>
+        <v>2936722571.3227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ETC-USD</t>
+          <t>KAS-USD</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2726804834.093751</v>
+        <v>2845059774.250866</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KAS-USD</t>
+          <t>ETC-USD</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2634899949.649961</v>
+        <v>2708696843.118416</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2427815139.415774</v>
+        <v>2471411852.160924</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>712403474328.6237</v>
+        <v>721822004946.6613</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>233060734699.9614</v>
+        <v>238757490487.562</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36733836442.48392</v>
+        <v>37236187214.45196</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32341722829.58475</v>
+        <v>33496448734.68774</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23766798908.51626</v>
+        <v>25735893912.38502</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12654297692.55502</v>
+        <v>13474737593.61954</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11414047453.66166</v>
+        <v>11331874179.83384</v>
       </c>
     </row>
     <row r="9">
@@ -567,67 +567,67 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9054307447.092562</v>
+        <v>9185205189.405489</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TON-USD</t>
+          <t>LINK-USD</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7832005744.651767</v>
+        <v>8312236219.980906</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AVAX-USD</t>
+          <t>TON-USD</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7552872747.33217</v>
+        <v>8143361052.435756</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MATIC-USD</t>
+          <t>AVAX-USD</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7422299702.959957</v>
+        <v>7856639553.704082</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LINK-USD</t>
+          <t>MATIC-USD</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7357838350.242954</v>
+        <v>7836679711.433878</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6370003276.308003</v>
+        <v>6825480115.639763</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5948426181.785741</v>
+        <v>6020219097.194231</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5098121447.229634</v>
+        <v>5196034870.088827</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5007129192.623631</v>
+        <v>5074550718.691789</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4401045245.064432</v>
+        <v>4470857312.850419</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3776941243.543385</v>
+        <v>3794193096.424839</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3403348210.570119</v>
+        <v>3486559451.37834</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3388918496.292229</v>
+        <v>3470002856.548593</v>
       </c>
     </row>
     <row r="22">
@@ -762,37 +762,37 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3272536859.50116</v>
+        <v>3387796301.592801</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>XMR-USD</t>
+          <t>KAS-USD</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2936722571.3227</v>
+        <v>3192424444.592762</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KAS-USD</t>
+          <t>XMR-USD</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2845059774.250866</v>
+        <v>2999298592.317074</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2708696843.118416</v>
+        <v>2792791708.442972</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2471411852.160924</v>
+        <v>2508396660.318811</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>721822004946.6613</v>
+        <v>727683411616.0249</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>238757490487.562</v>
+        <v>243512160780.3604</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37236187214.45196</v>
+        <v>37541233480.68076</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33496448734.68774</v>
+        <v>33539494594.78046</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25735893912.38502</v>
+        <v>25578497759.71209</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13474737593.61954</v>
+        <v>13770658592.77569</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11331874179.83384</v>
+        <v>11530518436.7949</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9185205189.405489</v>
+        <v>9268992390.106615</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8312236219.980906</v>
+        <v>8399549448.9212</v>
       </c>
     </row>
     <row r="11">
@@ -597,37 +597,37 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8143361052.435756</v>
+        <v>8094113995.839714</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AVAX-USD</t>
+          <t>MATIC-USD</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7856639553.704082</v>
+        <v>7892452774.591537</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MATIC-USD</t>
+          <t>AVAX-USD</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7836679711.433878</v>
+        <v>7778373822.380466</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6825480115.639763</v>
+        <v>6830600606.39605</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6020219097.194231</v>
+        <v>6074129892.491833</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5196034870.088827</v>
+        <v>5207497463.269599</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5074550718.691789</v>
+        <v>5112146593.72781</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4470857312.850419</v>
+        <v>4489172894.021282</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3794193096.424839</v>
+        <v>3663655073.672228</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3486559451.37834</v>
+        <v>3527963882.813667</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3470002856.548593</v>
+        <v>3453450705.229949</v>
       </c>
     </row>
     <row r="22">
@@ -762,37 +762,37 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3387796301.592801</v>
+        <v>3385864700.635701</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KAS-USD</t>
+          <t>XMR-USD</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3192424444.592762</v>
+        <v>3009523107.433399</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>XMR-USD</t>
+          <t>KAS-USD</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2999298592.317074</v>
+        <v>3001668198.498478</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2792791708.442972</v>
+        <v>2825101983.516402</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2508396660.318811</v>
+        <v>2458337702.181116</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>727683411616.0249</v>
+        <v>730781075708.5688</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>243512160780.3604</v>
+        <v>245257091704.5142</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37541233480.68076</v>
+        <v>37558555657.86328</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33539494594.78046</v>
+        <v>33331957411.70317</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25578497759.71209</v>
+        <v>25311182965.7804</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13770658592.77569</v>
+        <v>13828792225.42868</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11530518436.7949</v>
+        <v>11456884589.16068</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9268992390.106615</v>
+        <v>9235860793.291689</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8399549448.9212</v>
+        <v>8453209150.625892</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8094113995.839714</v>
+        <v>8111096848.791776</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7892452774.591537</v>
+        <v>7869724955.00743</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7778373822.380466</v>
+        <v>7842322201.283567</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6830600606.39605</v>
+        <v>6816510736.856397</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6074129892.491833</v>
+        <v>6082869313.002133</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5207497463.269599</v>
+        <v>5208165229.352201</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5112146593.72781</v>
+        <v>5077501592.809649</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4489172894.021282</v>
+        <v>4482371364.744591</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3663655073.672228</v>
+        <v>3661721163.844837</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3527963882.813667</v>
+        <v>3520144110.326622</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3453450705.229949</v>
+        <v>3482261875.863487</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3385864700.635701</v>
+        <v>3395851447.907824</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3009523107.433399</v>
+        <v>3021454679.573148</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3001668198.498478</v>
+        <v>2940131061.636749</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2825101983.516402</v>
+        <v>2851678189.604074</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2458337702.181116</v>
+        <v>2446990549.970589</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>730781075708.5688</v>
+        <v>734020108300.9487</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>245257091704.5142</v>
+        <v>246066347323.4598</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37558555657.86328</v>
+        <v>38992486587.04223</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33331957411.70317</v>
+        <v>33307298629.42934</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25311182965.7804</v>
+        <v>24253458545.67005</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13828792225.42868</v>
+        <v>13677197642.06798</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11456884589.16068</v>
+        <v>11359429835.55813</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9235860793.291689</v>
+        <v>9119366109.749874</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8453209150.625892</v>
+        <v>8257079728.487464</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8111096848.791776</v>
+        <v>8093285119.901435</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7869724955.00743</v>
+        <v>7637931566.491719</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7842322201.283567</v>
+        <v>7592349038.162902</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6816510736.856397</v>
+        <v>6727678885.928888</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6082869313.002133</v>
+        <v>6131783021.903178</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5208165229.352201</v>
+        <v>5185208942.700999</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5077501592.809649</v>
+        <v>5060123103.839664</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4482371364.744591</v>
+        <v>4467550118.133206</v>
       </c>
     </row>
     <row r="19">
@@ -717,37 +717,37 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3661721163.844837</v>
+        <v>3651225093.29196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATOM-USD</t>
+          <t>OKB-USD</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3520144110.326622</v>
+        <v>3454728662.767564</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>OKB-USD</t>
+          <t>ATOM-USD</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3482261875.863487</v>
+        <v>3453696439.300338</v>
       </c>
     </row>
     <row r="22">
@@ -762,37 +762,37 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3395851447.907824</v>
+        <v>3366126614.056954</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>XMR-USD</t>
+          <t>KAS-USD</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3021454679.573148</v>
+        <v>3015161535.871074</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KAS-USD</t>
+          <t>XMR-USD</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2940131061.636749</v>
+        <v>3004347745.952567</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2851678189.604074</v>
+        <v>2841200082.369965</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2446990549.970589</v>
+        <v>2440675830.95558</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>734020108300.9487</v>
+        <v>733254622480.3918</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>246066347323.4598</v>
+        <v>245004106503.6021</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38992486587.04223</v>
+        <v>38979450601.00156</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33307298629.42934</v>
+        <v>33271384090.01248</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24253458545.67005</v>
+        <v>24200680929.91388</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13677197642.06798</v>
+        <v>13676039904.03184</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11359429835.55813</v>
+        <v>11307874390.69796</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9119366109.749874</v>
+        <v>9107236536.177261</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8257079728.487464</v>
+        <v>8236974913.483917</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8093285119.901435</v>
+        <v>8069728753.983333</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7637931566.491719</v>
+        <v>7619216445.660897</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7592349038.162902</v>
+        <v>7573275962.836371</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6727678885.928888</v>
+        <v>6705594059.460939</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6131783021.903178</v>
+        <v>6128858102.79287</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5185208942.700999</v>
+        <v>5184494138.232625</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5060123103.839664</v>
+        <v>5047161333.232044</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4467550118.133206</v>
+        <v>4459629043.109957</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3651225093.29196</v>
+        <v>3654399337.632639</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3454728662.767564</v>
+        <v>3457795566.161396</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3453696439.300338</v>
+        <v>3442822834.555476</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3366126614.056954</v>
+        <v>3359453982.646832</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3015161535.871074</v>
+        <v>3002475018.680318</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3004347745.952567</v>
+        <v>2998286113.47163</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2841200082.369965</v>
+        <v>2838187810.826586</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2440675830.95558</v>
+        <v>2434651852.053389</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>733254622480.3918</v>
+        <v>736618623046.0665</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>245004106503.6021</v>
+        <v>245831843180.7638</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38979450601.00156</v>
+        <v>39264969020.21658</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33271384090.01248</v>
+        <v>33336564002.83117</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24200680929.91388</v>
+        <v>24349065386.73361</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13676039904.03184</v>
+        <v>13663137986.51064</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11307874390.69796</v>
+        <v>11333989505.26704</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9107236536.177261</v>
+        <v>9090267401.994192</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8236974913.483917</v>
+        <v>8236026889.612488</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8069728753.983333</v>
+        <v>8081851554.837598</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7619216445.660897</v>
+        <v>7626351885.505556</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7573275962.836371</v>
+        <v>7583153032.951226</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6705594059.460939</v>
+        <v>6707523369.361221</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6128858102.79287</v>
+        <v>6141272638.352819</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5184494138.232625</v>
+        <v>5191027096.528177</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5047161333.232044</v>
+        <v>5051464744.905278</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4459629043.109957</v>
+        <v>4465801139.945673</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3654399337.632639</v>
+        <v>3664513470.983015</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3457795566.161396</v>
+        <v>3461681444.843696</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3442822834.555476</v>
+        <v>3438582604.318887</v>
       </c>
     </row>
     <row r="22">
@@ -762,37 +762,37 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3359453982.646832</v>
+        <v>3361110819.951435</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KAS-USD</t>
+          <t>XMR-USD</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3002475018.680318</v>
+        <v>3008383163.518763</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>XMR-USD</t>
+          <t>KAS-USD</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2998286113.47163</v>
+        <v>2997551953.684832</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2838187810.826586</v>
+        <v>2846611419.595122</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2434651852.053389</v>
+        <v>2437929453.019127</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>736618623046.0665</v>
+        <v>734283209566.5956</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>245831843180.7638</v>
+        <v>245227573040.3853</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39264969020.21658</v>
+        <v>39201564034.85326</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33336564002.83117</v>
+        <v>33310656530.94685</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24349065386.73361</v>
+        <v>24399622165.73147</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13663137986.51064</v>
+        <v>13665400136.30362</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11333989505.26704</v>
+        <v>11304976145.07183</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9090267401.994192</v>
+        <v>9056483331.556614</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8236026889.612488</v>
+        <v>8260159516.992143</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8081851554.837598</v>
+        <v>8084726899.33145</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7626351885.505556</v>
+        <v>7632285366.632638</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7583153032.951226</v>
+        <v>7618079701.282753</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6707523369.361221</v>
+        <v>6698546429.708444</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6141272638.352819</v>
+        <v>6132020529.331023</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5191027096.528177</v>
+        <v>5186461309.489183</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5051464744.905278</v>
+        <v>5048987793.845691</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4465801139.945673</v>
+        <v>4465611717.579144</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3664513470.983015</v>
+        <v>3658175713.09136</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3461681444.843696</v>
+        <v>3461649966.767</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3438582604.318887</v>
+        <v>3434662981.505833</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3361110819.951435</v>
+        <v>3363821194.031478</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3008383163.518763</v>
+        <v>3012735565.923972</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2997551953.684832</v>
+        <v>2993198303.274961</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2846611419.595122</v>
+        <v>2851150359.793557</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2437929453.019127</v>
+        <v>2432964843.350379</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>734283209566.5956</v>
+        <v>732621518415.6881</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>245227573040.3853</v>
+        <v>244544162085.86</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39201564034.85326</v>
+        <v>39021256108.05149</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33310656530.94685</v>
+        <v>33240319443.19441</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24399622165.73147</v>
+        <v>24192102645.34322</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13665400136.30362</v>
+        <v>13626977438.05725</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11304976145.07183</v>
+        <v>11276561340.28382</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9056483331.556614</v>
+        <v>9044693106.554544</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8260159516.992143</v>
+        <v>8216551625.333233</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8084726899.33145</v>
+        <v>7983491076.597414</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7632285366.632638</v>
+        <v>7616338019.167827</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7618079701.282753</v>
+        <v>7579762307.742823</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6698546429.708444</v>
+        <v>6682877131.788206</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6132020529.331023</v>
+        <v>6125944627.159385</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5186461309.489183</v>
+        <v>5176081409.588452</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5048987793.845691</v>
+        <v>5036113315.379909</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4465611717.579144</v>
+        <v>4460651036.843834</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3658175713.09136</v>
+        <v>3657433322.423396</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3461649966.767</v>
+        <v>3446382275.144342</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3434662981.505833</v>
+        <v>3425579876.474032</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3363821194.031478</v>
+        <v>3352688912.854328</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3012735565.923972</v>
+        <v>3006698295.104897</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2993198303.274961</v>
+        <v>2975587062.48001</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2851150359.793557</v>
+        <v>2833196183.419603</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2432964843.350379</v>
+        <v>2432555563.773227</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>732621518415.6881</v>
+        <v>729431075064.6177</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>244544162085.86</v>
+        <v>242592035669.9406</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39021256108.05149</v>
+        <v>38546293282.48323</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33240319443.19441</v>
+        <v>33008852869.3367</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24192102645.34322</v>
+        <v>24021573189.59893</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13626977438.05725</v>
+        <v>13512831692.44543</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11276561340.28382</v>
+        <v>11142336054.50107</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9044693106.554544</v>
+        <v>8982471179.741514</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8216551625.333233</v>
+        <v>8164186323.448427</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7983491076.597414</v>
+        <v>8017911225.030121</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7616338019.167827</v>
+        <v>7543397315.466955</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7579762307.742823</v>
+        <v>7453560681.502629</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6682877131.788206</v>
+        <v>6625225420.032711</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6125944627.159385</v>
+        <v>6103426608.159463</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5176081409.588452</v>
+        <v>5134282653.701077</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5036113315.379909</v>
+        <v>5001170297.030499</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4460651036.843834</v>
+        <v>4437667212.968637</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3657433322.423396</v>
+        <v>3662542089.66906</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3446382275.144342</v>
+        <v>3432517641.427256</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3425579876.474032</v>
+        <v>3374269752.405669</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3352688912.854328</v>
+        <v>3337446850.011869</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3006698295.104897</v>
+        <v>2982969015.387188</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2975587062.48001</v>
+        <v>2857314546.646533</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2833196183.419603</v>
+        <v>2816638742.189737</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2432555563.773227</v>
+        <v>2421713752.141298</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>729431075064.6177</v>
+        <v>731036903056.5731</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>242592035669.9406</v>
+        <v>243334886000.2308</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38546293282.48323</v>
+        <v>38276083871.42936</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33008852869.3367</v>
+        <v>32978549238.22686</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24021573189.59893</v>
+        <v>23933382321.12405</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13512831692.44543</v>
+        <v>13545329889.92877</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11142336054.50107</v>
+        <v>11104793058.20352</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8982471179.741514</v>
+        <v>8970817256.142069</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8164186323.448427</v>
+        <v>8152213961.077872</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8017911225.030121</v>
+        <v>8038247998.649197</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7543397315.466955</v>
+        <v>7545186011.155745</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7453560681.502629</v>
+        <v>7489135244.419305</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6625225420.032711</v>
+        <v>6642544170.087673</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6103426608.159463</v>
+        <v>6099716684.251385</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5134282653.701077</v>
+        <v>5130969838.210264</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5001170297.030499</v>
+        <v>4980892809.692104</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4437667212.968637</v>
+        <v>4439990926.114558</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3662542089.66906</v>
+        <v>3647531560.677116</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3432517641.427256</v>
+        <v>3444283678.593993</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3374269752.405669</v>
+        <v>3388011308.662254</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3337446850.011869</v>
+        <v>3340490982.327471</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2982969015.387188</v>
+        <v>2996521514.542429</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2857314546.646533</v>
+        <v>2872354197.322468</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2816638742.189737</v>
+        <v>2817265817.994573</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2421713752.141298</v>
+        <v>2421248748.850314</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>731036903056.5731</v>
+        <v>733835792393.3655</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>243334886000.2308</v>
+        <v>244197986204.4612</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38276083871.42936</v>
+        <v>38754228890.50747</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32978549238.22686</v>
+        <v>33163087953.84414</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23933382321.12405</v>
+        <v>24267507059.69173</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13545329889.92877</v>
+        <v>13600782691.13866</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11104793058.20352</v>
+        <v>11137121548.95632</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8970817256.142069</v>
+        <v>8975153117.749027</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8152213961.077872</v>
+        <v>8124689996.017399</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8038247998.649197</v>
+        <v>8105716689.788601</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7545186011.155745</v>
+        <v>7587365831.908644</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7489135244.419305</v>
+        <v>7533625757.733759</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6642544170.087673</v>
+        <v>6922955810.914808</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6099716684.251385</v>
+        <v>6113635507.782729</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5130969838.210264</v>
+        <v>5155444364.52497</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4980892809.692104</v>
+        <v>5008211726.920108</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4439990926.114558</v>
+        <v>4453410513.504256</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3647531560.677116</v>
+        <v>3655776520.505416</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3444283678.593993</v>
+        <v>3450320352.185087</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3388011308.662254</v>
+        <v>3408499224.341598</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3340490982.327471</v>
+        <v>3359294753.929873</v>
       </c>
     </row>
     <row r="23">
@@ -777,37 +777,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2996521514.542429</v>
+        <v>3021045650.232212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KAS-USD</t>
+          <t>ETC-USD</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2872354197.322468</v>
+        <v>2836686006.355087</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ETC-USD</t>
+          <t>KAS-USD</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2817265817.994573</v>
+        <v>2825275469.85162</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2421248748.850314</v>
+        <v>2429185809.542899</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>733835792393.3655</v>
+        <v>732666015714.3153</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>244197986204.4612</v>
+        <v>243390022314.4409</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38754228890.50747</v>
+        <v>38553263308.80518</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33163087953.84414</v>
+        <v>33017420124.65859</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24267507059.69173</v>
+        <v>24045736641.4287</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13600782691.13866</v>
+        <v>13461116528.69757</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11137121548.95632</v>
+        <v>11064839997.36963</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8975153117.749027</v>
+        <v>8960583136.712769</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8124689996.017399</v>
+        <v>8092363142.580025</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8105716689.788601</v>
+        <v>7988591938.638286</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7587365831.908644</v>
+        <v>7520098175.876218</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7533625757.733759</v>
+        <v>7422617002.338256</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6922955810.914808</v>
+        <v>6867663609.434041</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6113635507.782729</v>
+        <v>6084990472.010634</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5155444364.52497</v>
+        <v>5148749028.02157</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5008211726.920108</v>
+        <v>4983489915.455687</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4453410513.504256</v>
+        <v>4434950716.939951</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3655776520.505416</v>
+        <v>3658270103.735498</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3450320352.185087</v>
+        <v>3452732850.315029</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3408499224.341598</v>
+        <v>3378102172.321451</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3359294753.929873</v>
+        <v>3355757906.561194</v>
       </c>
     </row>
     <row r="23">
@@ -777,37 +777,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3021045650.232212</v>
+        <v>3002407538.344346</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ETC-USD</t>
+          <t>KAS-USD</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2836686006.355087</v>
+        <v>2819431652.400485</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KAS-USD</t>
+          <t>ETC-USD</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2825275469.85162</v>
+        <v>2812931796.373783</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2429185809.542899</v>
+        <v>2411014515.115713</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>733835792393.3655</v>
+        <v>733393132612.9136</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>244197986204.4612</v>
+        <v>243846607955.8934</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38754228890.50747</v>
+        <v>38697792280.87521</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33163087953.84414</v>
+        <v>33018978141.22726</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24267507059.69173</v>
+        <v>24121275168.52177</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13600782691.13866</v>
+        <v>13503610892.6751</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11137121548.95632</v>
+        <v>11094932539.79683</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8975153117.749027</v>
+        <v>8983786438.379419</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8124689996.017399</v>
+        <v>8130535273.256174</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8105716689.788601</v>
+        <v>8014856059.710876</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7587365831.908644</v>
+        <v>7552170398.06092</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7533625757.733759</v>
+        <v>7443687747.202197</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6922955810.914808</v>
+        <v>6645730095.053482</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6113635507.782729</v>
+        <v>6088101593.549582</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5155444364.52497</v>
+        <v>5161236954.146833</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5008211726.920108</v>
+        <v>4995611868.743592</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4453410513.504256</v>
+        <v>4442683961.84003</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3655776520.505416</v>
+        <v>3681222566.89737</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3450320352.185087</v>
+        <v>3448545273.010296</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3408499224.341598</v>
+        <v>3393338604.029912</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3359294753.929873</v>
+        <v>3361307837.96732</v>
       </c>
     </row>
     <row r="23">
@@ -777,37 +777,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3021045650.232212</v>
+        <v>3005890128.161679</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ETC-USD</t>
+          <t>KAS-USD</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2836686006.355087</v>
+        <v>2850647270.904949</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KAS-USD</t>
+          <t>ETC-USD</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2825275469.85162</v>
+        <v>2821274728.989845</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2429185809.542899</v>
+        <v>2420103159.134741</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>732666015714.3153</v>
+        <v>731328207344.1487</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>243390022314.4409</v>
+        <v>243848336462.4445</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38553263308.80518</v>
+        <v>38897308613.14926</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33017420124.65859</v>
+        <v>33031459115.72026</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24045736641.4287</v>
+        <v>24108716716.17286</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13461116528.69757</v>
+        <v>13546617417.9198</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11064839997.36963</v>
+        <v>11110165998.26605</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8960583136.712769</v>
+        <v>8995956627.739824</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8092363142.580025</v>
+        <v>8130294178.05073</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7988591938.638286</v>
+        <v>8031994567.728826</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7520098175.876218</v>
+        <v>7546205033.673535</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7422617002.338256</v>
+        <v>7435826137.515828</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6867663609.434041</v>
+        <v>6637440630.684655</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6084990472.010634</v>
+        <v>6086459300.24696</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5148749028.02157</v>
+        <v>5172735273.081258</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4983489915.455687</v>
+        <v>4997271780.234427</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4434950716.939951</v>
+        <v>4449279246.849122</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3658270103.735498</v>
+        <v>3658360719.434418</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3452732850.315029</v>
+        <v>3453039002.858096</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3378102172.321451</v>
+        <v>3393770849.066844</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3355757906.561194</v>
+        <v>3358900876.520487</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3002407538.344346</v>
+        <v>3005546425.306632</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2819431652.400485</v>
+        <v>2856450754.591782</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2812931796.373783</v>
+        <v>2820653867.299805</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2411014515.115713</v>
+        <v>2421578972.477175</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>731328207344.1487</v>
+        <v>722083197571.0117</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>243848336462.4445</v>
+        <v>239556246949.2205</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38897308613.14926</v>
+        <v>39937239396.64744</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33031459115.72026</v>
+        <v>32402216695.96411</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24108716716.17286</v>
+        <v>23521994533.03697</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13546617417.9198</v>
+        <v>13161846889.23369</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11110165998.26605</v>
+        <v>10762100641.47869</v>
       </c>
     </row>
     <row r="9">
@@ -567,67 +567,67 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8995956627.739824</v>
+        <v>8884410832.585026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LINK-USD</t>
+          <t>TON-USD</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8130294178.05073</v>
+        <v>8125343306.722384</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TON-USD</t>
+          <t>LINK-USD</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8031994567.728826</v>
+        <v>7888449648.328818</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MATIC-USD</t>
+          <t>AVAX-USD</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7546205033.673535</v>
+        <v>7843970634.056595</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AVAX-USD</t>
+          <t>MATIC-USD</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7435826137.515828</v>
+        <v>7120772770.06349</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6637440630.684655</v>
+        <v>6416029036.080703</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6086459300.24696</v>
+        <v>6009383697.143572</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5172735273.081258</v>
+        <v>5132419141.576688</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4997271780.234427</v>
+        <v>4853003062.963071</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4449279246.849122</v>
+        <v>4534443471.873801</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3658360719.434418</v>
+        <v>3664470399.848796</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3453039002.858096</v>
+        <v>3404409505.952782</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3393770849.066844</v>
+        <v>3318341628.379133</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3358900876.520487</v>
+        <v>3293113581.594685</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3005546425.306632</v>
+        <v>3024554522.929733</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2856450754.591782</v>
+        <v>2773156957.706165</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2820653867.299805</v>
+        <v>2742363487.124164</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2421578972.477175</v>
+        <v>2284088448.079952</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>722083197571.0117</v>
+        <v>723493634947.6525</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>239556246949.2205</v>
+        <v>239477303355.407</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39937239396.64744</v>
+        <v>40083360017.85383</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32402216695.96411</v>
+        <v>32334085077.08804</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23521994533.03697</v>
+        <v>23358252643.65583</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13161846889.23369</v>
+        <v>13120707993.36695</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10762100641.47869</v>
+        <v>10737813671.65464</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8884410832.585026</v>
+        <v>8855704346.205564</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8125343306.722384</v>
+        <v>8131015179.177919</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7888449648.328818</v>
+        <v>7833418168.090677</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7843970634.056595</v>
+        <v>7739554485.834815</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7120772770.06349</v>
+        <v>7096432829.71697</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6416029036.080703</v>
+        <v>6411174090.279553</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6009383697.143572</v>
+        <v>6003692797.667901</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5132419141.576688</v>
+        <v>5134313438.650262</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4853003062.963071</v>
+        <v>4842894033.222949</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4534443471.873801</v>
+        <v>4534363173.126561</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3664470399.848796</v>
+        <v>3668836413.572484</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3404409505.952782</v>
+        <v>3404222235.780966</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3318341628.379133</v>
+        <v>3299007362.415007</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3293113581.594685</v>
+        <v>3290102871.167439</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3024554522.929733</v>
+        <v>3033783403.951693</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2773156957.706165</v>
+        <v>2743096413.73422</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2742363487.124164</v>
+        <v>2740798691.706236</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2284088448.079952</v>
+        <v>2284980989.320694</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>723493634947.6525</v>
+        <v>728148299055.0037</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>239477303355.407</v>
+        <v>241382402196.1089</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40083360017.85383</v>
+        <v>39188609467.80232</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32334085077.08804</v>
+        <v>32471660237.88147</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23358252643.65583</v>
+        <v>23477783865.5713</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13120707993.36695</v>
+        <v>13227266085.05788</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10737813671.65464</v>
+        <v>10771753462.31646</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8855704346.205564</v>
+        <v>8855154110.583904</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8131015179.177919</v>
+        <v>8157895107.920761</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7833418168.090677</v>
+        <v>7893091116.775286</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7739554485.834815</v>
+        <v>7792340252.963367</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7096432829.71697</v>
+        <v>7139083629.724643</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6411174090.279553</v>
+        <v>6439402715.686786</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6003692797.667901</v>
+        <v>6033988090.583251</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5134313438.650262</v>
+        <v>5159896916.862312</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4842894033.222949</v>
+        <v>4855923155.419764</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4534363173.126561</v>
+        <v>4554426115.773208</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3668836413.572484</v>
+        <v>3667528005.296615</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3404222235.780966</v>
+        <v>3415847578.393232</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3299007362.415007</v>
+        <v>3310068488.400819</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3290102871.167439</v>
+        <v>3299297815.182437</v>
       </c>
     </row>
     <row r="23">
@@ -777,37 +777,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3033783403.951693</v>
+        <v>3031826954.584506</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KAS-USD</t>
+          <t>ETC-USD</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2743096413.73422</v>
+        <v>2760435099.851798</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ETC-USD</t>
+          <t>KAS-USD</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2740798691.706236</v>
+        <v>2756024096.737393</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2284980989.320694</v>
+        <v>2295621516.901315</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>728148299055.0037</v>
+        <v>729145157644.3295</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>241382402196.1089</v>
+        <v>241731869849.2782</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39188609467.80232</v>
+        <v>39602698790.27518</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32471660237.88147</v>
+        <v>32502072147.51178</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23477783865.5713</v>
+        <v>23469441137.97555</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13227266085.05788</v>
+        <v>13344005669.95304</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10771753462.31646</v>
+        <v>10804088460.97392</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8855154110.583904</v>
+        <v>8855600526.850658</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8157895107.920761</v>
+        <v>8145111698.398745</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7893091116.775286</v>
+        <v>7903998267.263112</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7792340252.963367</v>
+        <v>7760606432.438826</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7139083629.724643</v>
+        <v>7167198381.981956</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6439402715.686786</v>
+        <v>6452396403.818887</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6033988090.583251</v>
+        <v>6046322513.523537</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5159896916.862312</v>
+        <v>5162524229.732522</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4855923155.419764</v>
+        <v>4864876331.006963</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4554426115.773208</v>
+        <v>4566458332.186759</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3667528005.296615</v>
+        <v>3674184158.171637</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3415847578.393232</v>
+        <v>3413201775.884381</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3310068488.400819</v>
+        <v>3319734438.74834</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3299297815.182437</v>
+        <v>3302111509.728972</v>
       </c>
     </row>
     <row r="23">
@@ -777,37 +777,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3031826954.584506</v>
+        <v>3033583691.474813</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ETC-USD</t>
+          <t>KAS-USD</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2760435099.851798</v>
+        <v>2791504210.54242</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KAS-USD</t>
+          <t>ETC-USD</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2756024096.737393</v>
+        <v>2762259619.906888</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2295621516.901315</v>
+        <v>2299663075.744917</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>729145157644.3295</v>
+        <v>729722720401.9384</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>241731869849.2782</v>
+        <v>241105104749.3631</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39602698790.27518</v>
+        <v>38906171343.64378</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32502072147.51178</v>
+        <v>32445801258.08879</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23469441137.97555</v>
+        <v>23353038555.55812</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13344005669.95304</v>
+        <v>13314303088.90858</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10804088460.97392</v>
+        <v>10791658546.63832</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8855600526.850658</v>
+        <v>8841451987.652271</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8145111698.398745</v>
+        <v>8152933488.703064</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7903998267.263112</v>
+        <v>7896787599.816723</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7760606432.438826</v>
+        <v>7710680793.760282</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7167198381.981956</v>
+        <v>7156323041.139465</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6452396403.818887</v>
+        <v>6439929643.423268</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6046322513.523537</v>
+        <v>6069564410.780427</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5162524229.732522</v>
+        <v>5151841716.094683</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4864876331.006963</v>
+        <v>4869677441.536903</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4566458332.186759</v>
+        <v>4553309680.743941</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3674184158.171637</v>
+        <v>3686485089.627773</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3413201775.884381</v>
+        <v>3415332265.104791</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3319734438.74834</v>
+        <v>3316376783.488207</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3302111509.728972</v>
+        <v>3298626789.286616</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3033583691.474813</v>
+        <v>3025079042.730121</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2791504210.54242</v>
+        <v>2851262545.040114</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2762259619.906888</v>
+        <v>2759265450.874092</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2299663075.744917</v>
+        <v>2299708312.004048</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>729722720401.9384</v>
+        <v>721290273625.0334</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>241105104749.3631</v>
+        <v>237102651906.4539</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38906171343.64378</v>
+        <v>36257641265.73676</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32445801258.08879</v>
+        <v>31669445780.75959</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23353038555.55812</v>
+        <v>22576608072.8359</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13314303088.90858</v>
+        <v>12901624178.20656</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10791658546.63832</v>
+        <v>10491049583.84841</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8841451987.652271</v>
+        <v>8682444230.432707</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8152933488.703064</v>
+        <v>7966812019.283106</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7896787599.816723</v>
+        <v>7643252627.538104</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7710680793.760282</v>
+        <v>7322903946.90082</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7156323041.139465</v>
+        <v>6889425336.009727</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6439929643.423268</v>
+        <v>6216669706.389012</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6069564410.780427</v>
+        <v>5985898056.817393</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5151841716.094683</v>
+        <v>4999692769.452002</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4869677441.536903</v>
+        <v>4716632282.294659</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4553309680.743941</v>
+        <v>4383926080.107952</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3686485089.627773</v>
+        <v>3674721454.347907</v>
       </c>
     </row>
     <row r="20">
@@ -732,37 +732,37 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3415332265.104791</v>
+        <v>3535528763.525602</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATOM-USD</t>
+          <t>XLM-USD</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3316376783.488207</v>
+        <v>3224840834.285896</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>XLM-USD</t>
+          <t>ATOM-USD</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3298626789.286616</v>
+        <v>3196401911.289618</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3025079042.730121</v>
+        <v>2963329981.922871</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2851262545.040114</v>
+        <v>2725104685.320058</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2759265450.874092</v>
+        <v>2684611098.464542</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2299708312.004048</v>
+        <v>2234723850.372479</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>721290273625.0334</v>
+        <v>720555357660.6833</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>237102651906.4539</v>
+        <v>237219907554.2075</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36257641265.73676</v>
+        <v>36244374699.40305</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31669445780.75959</v>
+        <v>31835436734.56149</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22576608072.8359</v>
+        <v>22625426780.57943</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12901624178.20656</v>
+        <v>12942062952.2629</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10491049583.84841</v>
+        <v>10561921470.56648</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8682444230.432707</v>
+        <v>8669637147.016708</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7966812019.283106</v>
+        <v>7993639768.066844</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7643252627.538104</v>
+        <v>7677461214.994335</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7322903946.90082</v>
+        <v>7297547126.936193</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6889425336.009727</v>
+        <v>6906948510.93608</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6216669706.389012</v>
+        <v>6221091283.9803</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5985898056.817393</v>
+        <v>5993218865.21528</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4999692769.452002</v>
+        <v>5026464185.273845</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4716632282.294659</v>
+        <v>4731845999.294127</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4383926080.107952</v>
+        <v>4404964464.454717</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3674721454.347907</v>
+        <v>3666931831.928238</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3535528763.525602</v>
+        <v>3583655373.5913</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3224840834.285896</v>
+        <v>3241191715.305621</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3196401911.289618</v>
+        <v>3215056108.443817</v>
       </c>
     </row>
     <row r="23">
@@ -777,37 +777,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2963329981.922871</v>
+        <v>2958348755.105806</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KAS-USD</t>
+          <t>ETC-USD</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2725104685.320058</v>
+        <v>2687624592.156111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ETC-USD</t>
+          <t>KAS-USD</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2684611098.464542</v>
+        <v>2674482386.612606</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2234723850.372479</v>
+        <v>2228625633.365339</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>720555357660.6833</v>
+        <v>722113178923.26</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>237219907554.2075</v>
+        <v>239541254496.6913</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36244374699.40305</v>
+        <v>36740641785.06532</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31835436734.56149</v>
+        <v>32191662585.45895</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22625426780.57943</v>
+        <v>23183652184.08698</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12942062952.2629</v>
+        <v>13162405346.01293</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10561921470.56648</v>
+        <v>10689268462.68528</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8669637147.016708</v>
+        <v>8655780829.482132</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7993639768.066844</v>
+        <v>8069886228.533433</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7677461214.994335</v>
+        <v>7848601797.129404</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7297547126.936193</v>
+        <v>7368501427.929321</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6906948510.93608</v>
+        <v>7025247575.183109</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6221091283.9803</v>
+        <v>6541123252.099557</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5993218865.21528</v>
+        <v>6014961546.785239</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5026464185.273845</v>
+        <v>5072757524.645171</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4731845999.294127</v>
+        <v>4773461099.742822</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4404964464.454717</v>
+        <v>4444005031.695962</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3666931831.928238</v>
+        <v>3674983780.836744</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3583655373.5913</v>
+        <v>3522698948.715496</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3241191715.305621</v>
+        <v>3263215983.659451</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3215056108.443817</v>
+        <v>3250473474.281646</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2958348755.105806</v>
+        <v>2982976949.005098</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2687624592.156111</v>
+        <v>2725063746.491085</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2674482386.612606</v>
+        <v>2708848523.561298</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2228625633.365339</v>
+        <v>2228026260.7799</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>722113178923.26</v>
+        <v>704448480175.6102</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>239541254496.6913</v>
+        <v>234301122105.401</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36740641785.06532</v>
+        <v>34780481584.6476</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32191662585.45895</v>
+        <v>31440446351.24937</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23183652184.08698</v>
+        <v>22409126657.29711</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13162405346.01293</v>
+        <v>12771770288.35733</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10689268462.68528</v>
+        <v>10367684249.58487</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8655780829.482132</v>
+        <v>8595727131.068867</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8069886228.533433</v>
+        <v>7968598284.179463</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7848601797.129404</v>
+        <v>7597837770.961227</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7368501427.929321</v>
+        <v>6882296974.000452</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7025247575.183109</v>
+        <v>6836765843.319241</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6541123252.099557</v>
+        <v>6154115361.756376</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6014961546.785239</v>
+        <v>5864055698.012118</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5072757524.645171</v>
+        <v>4943884169.308591</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4773461099.742822</v>
+        <v>4622630406.286113</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4444005031.695962</v>
+        <v>4274405809.596792</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3674983780.836744</v>
+        <v>3671686599.97737</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3522698948.715496</v>
+        <v>3401380976.234488</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3263215983.659451</v>
+        <v>3192916216.664364</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3250473474.281646</v>
+        <v>3132420847.329648</v>
       </c>
     </row>
     <row r="23">
@@ -777,37 +777,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2982976949.005098</v>
+        <v>2922229784.867324</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ETC-USD</t>
+          <t>KAS-USD</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2725063746.491085</v>
+        <v>2678810291.723003</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KAS-USD</t>
+          <t>ETC-USD</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2708848523.561298</v>
+        <v>2632693755.895442</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2228026260.7799</v>
+        <v>2193394215.989171</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>704448480175.6102</v>
+        <v>713408145429.4626</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>234301122105.401</v>
+        <v>242814620310.7914</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34780481584.6476</v>
+        <v>35356419041.60538</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31440446351.24937</v>
+        <v>31952860863.86129</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22409126657.29711</v>
+        <v>23219394016.70679</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12771770288.35733</v>
+        <v>13054128698.86161</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10367684249.58487</v>
+        <v>10572957351.13158</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8595727131.068867</v>
+        <v>8855656019.970976</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7968598284.179463</v>
+        <v>8207533770.940097</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7597837770.961227</v>
+        <v>7899877325.028001</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6882296974.000452</v>
+        <v>7172856209.641662</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6836765843.319241</v>
+        <v>7052109471.634726</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6154115361.756376</v>
+        <v>6549647879.810579</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5864055698.012118</v>
+        <v>5943020494.124944</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4943884169.308591</v>
+        <v>5001855713.450159</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4622630406.286113</v>
+        <v>4696164014.753898</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4274405809.596792</v>
+        <v>4300199471.765975</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3671686599.97737</v>
+        <v>3734294537.424081</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3401380976.234488</v>
+        <v>3461093890.421829</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3192916216.664364</v>
+        <v>3254968381.180032</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3132420847.329648</v>
+        <v>3233171860.471212</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2922229784.867324</v>
+        <v>2978080122.785878</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2678810291.723003</v>
+        <v>2855259008.35902</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2632693755.895442</v>
+        <v>2685551641.418438</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2193394215.989171</v>
+        <v>2406688509.304906</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>713408145429.4626</v>
+        <v>715288708312.6116</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>242814620310.7914</v>
+        <v>244618830165.4701</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35356419041.60538</v>
+        <v>35282955849.06819</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31952860863.86129</v>
+        <v>32210192316.1046</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23219394016.70679</v>
+        <v>23340304174.75451</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13054128698.86161</v>
+        <v>13073410466.77994</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10572957351.13158</v>
+        <v>10658568104.65692</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8855656019.970976</v>
+        <v>8887902261.530956</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8207533770.940097</v>
+        <v>8227955220.998444</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7899877325.028001</v>
+        <v>7916837032.316234</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7172856209.641662</v>
+        <v>7126445440.454309</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7052109471.634726</v>
+        <v>7057906647.601029</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6549647879.810579</v>
+        <v>6421237924.555904</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5943020494.124944</v>
+        <v>5942701838.947698</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5001855713.450159</v>
+        <v>5010442121.512793</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4696164014.753898</v>
+        <v>4696866512.535774</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4300199471.765975</v>
+        <v>4295249602.975042</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3734294537.424081</v>
+        <v>3731886901.859731</v>
       </c>
     </row>
     <row r="20">
@@ -732,37 +732,37 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3461093890.421829</v>
+        <v>3460888941.043783</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>XLM-USD</t>
+          <t>ATOM-USD</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3254968381.180032</v>
+        <v>3290826602.118458</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATOM-USD</t>
+          <t>XLM-USD</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3233171860.471212</v>
+        <v>3262783387.765724</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2978080122.785878</v>
+        <v>2993007339.182362</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2855259008.35902</v>
+        <v>2761986980.612746</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2685551641.418438</v>
+        <v>2696287252.689221</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2406688509.304906</v>
+        <v>2360025988.604437</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>715288708312.6116</v>
+        <v>723664642022.0618</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>244618830165.4701</v>
+        <v>246758836044.4923</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35282955849.06819</v>
+        <v>35529898585.5086</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32210192316.1046</v>
+        <v>32399619081.34889</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23340304174.75451</v>
+        <v>23664223911.57412</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13073410466.77994</v>
+        <v>13219991303.29176</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10658568104.65692</v>
+        <v>10739918741.23616</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8887902261.530956</v>
+        <v>8927731083.832275</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8227955220.998444</v>
+        <v>8276582658.967429</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7916837032.316234</v>
+        <v>8012707389.134512</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7126445440.454309</v>
+        <v>7238815020.729666</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7057906647.601029</v>
+        <v>7123434403.883887</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6421237924.555904</v>
+        <v>6720402596.581711</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5942701838.947698</v>
+        <v>5987551062.269527</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5010442121.512793</v>
+        <v>5044062020.346442</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4696866512.535774</v>
+        <v>4738421330.108534</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4295249602.975042</v>
+        <v>4317735068.687028</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3731886901.859731</v>
+        <v>3729676728.043265</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3460888941.043783</v>
+        <v>3473936263.348656</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3290826602.118458</v>
+        <v>3308787905.137556</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3262783387.765724</v>
+        <v>3276888163.457403</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2993007339.182362</v>
+        <v>2997442898.587745</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2761986980.612746</v>
+        <v>2797612208.228825</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2696287252.689221</v>
+        <v>2723694050.90598</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2360025988.604437</v>
+        <v>2381182584.020131</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>723664642022.0618</v>
+        <v>728127757485.9529</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>246758836044.4923</v>
+        <v>248947206859.0277</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35529898585.5086</v>
+        <v>35842103923.58646</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32399619081.34889</v>
+        <v>32789094089.75835</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23664223911.57412</v>
+        <v>24185017211.16008</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13219991303.29176</v>
+        <v>13352606143.86956</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10739918741.23616</v>
+        <v>10759940815.95023</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8927731083.832275</v>
+        <v>8966284996.765963</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8276582658.967429</v>
+        <v>8292017669.368899</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8012707389.134512</v>
+        <v>8086467521.47689</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7238815020.729666</v>
+        <v>7532202354.016511</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7123434403.883887</v>
+        <v>7190147621.414537</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6720402596.581711</v>
+        <v>6789191812.222837</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5987551062.269527</v>
+        <v>6059270581.208712</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5044062020.346442</v>
+        <v>5056212888.394469</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4738421330.108534</v>
+        <v>4774750034.886718</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4317735068.687028</v>
+        <v>4361698573.192698</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3729676728.043265</v>
+        <v>3757389910.898662</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3473936263.348656</v>
+        <v>3492021508.260048</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3308787905.137556</v>
+        <v>3330599207.781488</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3276888163.457403</v>
+        <v>3300542812.614562</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2997442898.587745</v>
+        <v>2999817564.762733</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2797612208.228825</v>
+        <v>2847168829.225609</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2723694050.90598</v>
+        <v>2750220253.895219</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2381182584.020131</v>
+        <v>2392904552.53546</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -555,7 +555,7 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>728503106406.1753</v>
+        <v>730512680152.3013</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -566,7 +566,7 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>249526718007.8198</v>
+        <v>247454647683.6473</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -577,7 +577,7 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>35751202247.60644</v>
+        <v>35878748866.67275</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -588,7 +588,7 @@
         <v>31</v>
       </c>
       <c r="C5">
-        <v>32728621687.52457</v>
+        <v>32787196271.93219</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -599,7 +599,7 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <v>24222369742.60138</v>
+        <v>24432943187.41841</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -610,7 +610,7 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <v>13341487751.16659</v>
+        <v>13404477188.66054</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -621,7 +621,7 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>10763981197.8828</v>
+        <v>10752488902.6462</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -632,7 +632,7 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>8960539340.339409</v>
+        <v>8966504163.866861</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -643,7 +643,7 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <v>8265442652.426142</v>
+        <v>8266235995.710874</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -654,7 +654,7 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <v>8069383206.777727</v>
+        <v>7919626408.214409</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -665,7 +665,7 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>7473285497.883883</v>
+        <v>7391868933.711772</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -676,7 +676,7 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <v>7177395630.021271</v>
+        <v>7156258542.766941</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -687,7 +687,7 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <v>6774476695.32843</v>
+        <v>6449168763.735313</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -698,7 +698,7 @@
         <v>41</v>
       </c>
       <c r="C15">
-        <v>6053102175.695949</v>
+        <v>6073860279.735406</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -709,7 +709,7 @@
         <v>42</v>
       </c>
       <c r="C16">
-        <v>5058809851.349492</v>
+        <v>5097324718.19793</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -720,7 +720,7 @@
         <v>43</v>
       </c>
       <c r="C17">
-        <v>4775257156.053594</v>
+        <v>4771793102.626423</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -731,7 +731,7 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>4359920946.042152</v>
+        <v>4365577243.736423</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <v>3773479429.021168</v>
+        <v>3777973972.673719</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -753,7 +753,7 @@
         <v>46</v>
       </c>
       <c r="C20">
-        <v>3484604430.707226</v>
+        <v>3496584142.623239</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -764,7 +764,7 @@
         <v>47</v>
       </c>
       <c r="C21">
-        <v>3326714467.634084</v>
+        <v>3323964311.210158</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -775,7 +775,7 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <v>3296254390.472877</v>
+        <v>3306499720.946167</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -786,7 +786,7 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <v>2989607922.471895</v>
+        <v>3008318783.482994</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -797,7 +797,7 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <v>2803688409.530941</v>
+        <v>2737804099.514008</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -808,7 +808,7 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <v>2750036313.014159</v>
+        <v>2736469578.123279</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -819,7 +819,7 @@
         <v>52</v>
       </c>
       <c r="C26">
-        <v>2412123952.283989</v>
+        <v>2456408356.827354</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>728127757485.9529</v>
+        <v>729452307914.964</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>248947206859.0277</v>
+        <v>247274651738.1406</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35842103923.58646</v>
+        <v>35889246967.43371</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32789094089.75835</v>
+        <v>32841118931.31339</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24185017211.16008</v>
+        <v>24437405375.18588</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13352606143.86956</v>
+        <v>13445294161.80837</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10759940815.95023</v>
+        <v>10773844725.77612</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8966284996.765963</v>
+        <v>8984553336.742424</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8292017669.368899</v>
+        <v>8235606022.197677</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8086467521.47689</v>
+        <v>8035539860.119489</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7532202354.016511</v>
+        <v>7438036117.054225</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7190147621.414537</v>
+        <v>7192503295.905393</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6789191812.222837</v>
+        <v>6462221783.156593</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6059270581.208712</v>
+        <v>6071707533.534866</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5056212888.394469</v>
+        <v>5110220791.4047</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4774750034.886718</v>
+        <v>4795370539.839595</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4361698573.192698</v>
+        <v>4412458485.5137</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3757389910.898662</v>
+        <v>3792471051.095762</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3492021508.260048</v>
+        <v>3489926144.652276</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3330599207.781488</v>
+        <v>3322514833.25357</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3300542812.614562</v>
+        <v>3306057057.413295</v>
       </c>
     </row>
     <row r="23">
@@ -777,37 +777,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2999817564.762733</v>
+        <v>3007520499.669557</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KAS-USD</t>
+          <t>ETC-USD</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2847168829.225609</v>
+        <v>2732922419.353358</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ETC-USD</t>
+          <t>KAS-USD</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2750220253.895219</v>
+        <v>2730235727.597404</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2392904552.53546</v>
+        <v>2474737191.456425</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -91,12 +91,12 @@
     <t>Monero</t>
   </si>
   <si>
+    <t>Ethereum Classic</t>
+  </si>
+  <si>
     <t>Kaspa</t>
   </si>
   <si>
-    <t>Ethereum Classic</t>
-  </si>
-  <si>
     <t>Cronos</t>
   </si>
   <si>
@@ -166,10 +166,10 @@
     <t>XMR-USD</t>
   </si>
   <si>
+    <t>ETC-USD</t>
+  </si>
+  <si>
     <t>KAS-USD</t>
-  </si>
-  <si>
-    <t>ETC-USD</t>
   </si>
   <si>
     <t>CRO-USD</t>
@@ -555,7 +555,7 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>731801244153.6709</v>
+        <v>722372549397.9398</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -566,7 +566,7 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>248007068333.1828</v>
+        <v>245521447938.1596</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -577,7 +577,7 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>35395418901.69009</v>
+        <v>35021155768.29485</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -588,7 +588,7 @@
         <v>31</v>
       </c>
       <c r="C5">
-        <v>33020921140.4625</v>
+        <v>33120120499.31993</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -599,7 +599,7 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <v>24706903066.42802</v>
+        <v>23975012550.49981</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -610,7 +610,7 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <v>13575901748.9755</v>
+        <v>13351213137.83818</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -621,7 +621,7 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>10766599426.3989</v>
+        <v>10669931425.47692</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -632,7 +632,7 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>8979805351.594442</v>
+        <v>8951670740.955879</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -643,7 +643,7 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <v>8228914821.425825</v>
+        <v>8152034859.065285</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -654,7 +654,7 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <v>7988891072.718956</v>
+        <v>7896231715.013188</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -665,7 +665,7 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>7505122373.168587</v>
+        <v>7334370645.503334</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -676,7 +676,7 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <v>7204323880.560933</v>
+        <v>7108959453.460295</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -687,7 +687,7 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <v>6448275294.744733</v>
+        <v>6375380161.262115</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -698,7 +698,7 @@
         <v>41</v>
       </c>
       <c r="C15">
-        <v>6082546680.400978</v>
+        <v>6029360761.003362</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -709,7 +709,7 @@
         <v>42</v>
       </c>
       <c r="C16">
-        <v>5118735412.930139</v>
+        <v>5072080315.086798</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -720,7 +720,7 @@
         <v>43</v>
       </c>
       <c r="C17">
-        <v>4786772408.724358</v>
+        <v>4729853488.20554</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -731,7 +731,7 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>4402570246.135977</v>
+        <v>4362049864.072336</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <v>3811696996.905764</v>
+        <v>3790164544.140406</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -753,7 +753,7 @@
         <v>46</v>
       </c>
       <c r="C20">
-        <v>3524737138.645567</v>
+        <v>3452298824.828917</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -764,7 +764,7 @@
         <v>47</v>
       </c>
       <c r="C21">
-        <v>3358985683.710223</v>
+        <v>3271220148.296094</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -775,7 +775,7 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <v>3289468847.247729</v>
+        <v>3260350550.203758</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -786,7 +786,7 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <v>3054187170.113299</v>
+        <v>3044044602.572844</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -797,7 +797,7 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <v>2811695940.43936</v>
+        <v>2703391028.716319</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -808,7 +808,7 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <v>2740147031.053804</v>
+        <v>2690569435.013835</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -819,7 +819,7 @@
         <v>52</v>
       </c>
       <c r="C26">
-        <v>2376592054.92052</v>
+        <v>2314128781.164953</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -91,12 +91,12 @@
     <t>Monero</t>
   </si>
   <si>
+    <t>Kaspa</t>
+  </si>
+  <si>
     <t>Ethereum Classic</t>
   </si>
   <si>
-    <t>Kaspa</t>
-  </si>
-  <si>
     <t>Cronos</t>
   </si>
   <si>
@@ -166,10 +166,10 @@
     <t>XMR-USD</t>
   </si>
   <si>
+    <t>KAS-USD</t>
+  </si>
+  <si>
     <t>ETC-USD</t>
-  </si>
-  <si>
-    <t>KAS-USD</t>
   </si>
   <si>
     <t>CRO-USD</t>
@@ -555,7 +555,7 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>722372549397.9398</v>
+        <v>726136673782.9392</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -566,7 +566,7 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>245521447938.1596</v>
+        <v>246739776141.3557</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -577,7 +577,7 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>35021155768.29485</v>
+        <v>35232503409.22829</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -588,7 +588,7 @@
         <v>31</v>
       </c>
       <c r="C5">
-        <v>33120120499.31993</v>
+        <v>33095194768.09108</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -599,7 +599,7 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <v>23975012550.49981</v>
+        <v>24058640939.11256</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -610,7 +610,7 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <v>13351213137.83818</v>
+        <v>13462976480.86654</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -621,7 +621,7 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>10669931425.47692</v>
+        <v>10726470819.17894</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -632,7 +632,7 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>8951670740.955879</v>
+        <v>8966599330.80106</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -643,7 +643,7 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <v>8152034859.065285</v>
+        <v>8234328670.67699</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -654,7 +654,7 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <v>7896231715.013188</v>
+        <v>7925892764.690978</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -665,7 +665,7 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>7334370645.503334</v>
+        <v>7407753876.200377</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -676,7 +676,7 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <v>7108959453.460295</v>
+        <v>7152603693.07559</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -687,7 +687,7 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <v>6375380161.262115</v>
+        <v>6403599015.264664</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -698,7 +698,7 @@
         <v>41</v>
       </c>
       <c r="C15">
-        <v>6029360761.003362</v>
+        <v>6034448458.853427</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -709,7 +709,7 @@
         <v>42</v>
       </c>
       <c r="C16">
-        <v>5072080315.086798</v>
+        <v>5102206036.627727</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -720,7 +720,7 @@
         <v>43</v>
       </c>
       <c r="C17">
-        <v>4729853488.20554</v>
+        <v>4752616482.879973</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -731,7 +731,7 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>4362049864.072336</v>
+        <v>4376733596.606018</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <v>3790164544.140406</v>
+        <v>3784373046.235852</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -753,7 +753,7 @@
         <v>46</v>
       </c>
       <c r="C20">
-        <v>3452298824.828917</v>
+        <v>3456925992.065712</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -764,7 +764,7 @@
         <v>47</v>
       </c>
       <c r="C21">
-        <v>3271220148.296094</v>
+        <v>3288333466.37686</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -775,7 +775,7 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <v>3260350550.203758</v>
+        <v>3267917456.664171</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -786,7 +786,7 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <v>3044044602.572844</v>
+        <v>3054998441.419912</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -797,7 +797,7 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <v>2703391028.716319</v>
+        <v>2728344596.269171</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -808,7 +808,7 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <v>2690569435.013835</v>
+        <v>2713033976.980379</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -819,7 +819,7 @@
         <v>52</v>
       </c>
       <c r="C26">
-        <v>2314128781.164953</v>
+        <v>2326377962.078745</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -555,7 +555,7 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>726136673782.9392</v>
+        <v>728468337064.214</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -566,7 +566,7 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>246739776141.3557</v>
+        <v>247582345045.7819</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -577,7 +577,7 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>35232503409.22829</v>
+        <v>35258720994.39204</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -588,7 +588,7 @@
         <v>31</v>
       </c>
       <c r="C5">
-        <v>33095194768.09108</v>
+        <v>33256557461.85886</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -599,7 +599,7 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <v>24058640939.11256</v>
+        <v>24029275225.26164</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -610,7 +610,7 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <v>13462976480.86654</v>
+        <v>13494726670.04683</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -621,7 +621,7 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>10726470819.17894</v>
+        <v>10773566732.13237</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -632,7 +632,7 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>8966599330.80106</v>
+        <v>9012306940.781408</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -643,7 +643,7 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <v>8234328670.67699</v>
+        <v>8298860851.393289</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -654,7 +654,7 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <v>7925892764.690978</v>
+        <v>8107879007.03618</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -665,7 +665,7 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>7407753876.200377</v>
+        <v>7358767498.515913</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -676,7 +676,7 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <v>7152603693.07559</v>
+        <v>7212440177.912173</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -687,7 +687,7 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <v>6403599015.264664</v>
+        <v>6662263144.838155</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -698,7 +698,7 @@
         <v>41</v>
       </c>
       <c r="C15">
-        <v>6034448458.853427</v>
+        <v>6051715601.171719</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -709,7 +709,7 @@
         <v>42</v>
       </c>
       <c r="C16">
-        <v>5102206036.627727</v>
+        <v>5127222348.481926</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -720,7 +720,7 @@
         <v>43</v>
       </c>
       <c r="C17">
-        <v>4752616482.879973</v>
+        <v>4765344038.656413</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -731,7 +731,7 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>4376733596.606018</v>
+        <v>4401359373.274726</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <v>3784373046.235852</v>
+        <v>3778981678.160348</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -753,7 +753,7 @@
         <v>46</v>
       </c>
       <c r="C20">
-        <v>3456925992.065712</v>
+        <v>3487123027.636964</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -764,7 +764,7 @@
         <v>47</v>
       </c>
       <c r="C21">
-        <v>3288333466.37686</v>
+        <v>3293326415.479542</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -775,7 +775,7 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <v>3267917456.664171</v>
+        <v>3275289772.452466</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -786,7 +786,7 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <v>3054998441.419912</v>
+        <v>3054902357.104695</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -797,7 +797,7 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <v>2728344596.269171</v>
+        <v>2777804281.923453</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -808,7 +808,7 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <v>2713033976.980379</v>
+        <v>2721418246.808467</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -819,7 +819,7 @@
         <v>52</v>
       </c>
       <c r="C26">
-        <v>2326377962.078745</v>
+        <v>2361333413.99097</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -555,7 +555,7 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>728468337064.214</v>
+        <v>728512470566.8444</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -566,7 +566,7 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>247582345045.7819</v>
+        <v>248811590451.5564</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -577,7 +577,7 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>35258720994.39204</v>
+        <v>35504205369.8035</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -588,7 +588,7 @@
         <v>31</v>
       </c>
       <c r="C5">
-        <v>33256557461.85886</v>
+        <v>33258914658.41915</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -599,7 +599,7 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <v>24029275225.26164</v>
+        <v>23937474891.55854</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -610,7 +610,7 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <v>13494726670.04683</v>
+        <v>13483418638.21661</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -621,7 +621,7 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>10773566732.13237</v>
+        <v>10811222174.66723</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -632,7 +632,7 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>9012306940.781408</v>
+        <v>9026874927.757669</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -643,7 +643,7 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <v>8298860851.393289</v>
+        <v>8165052830.440978</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -654,7 +654,7 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <v>8107879007.03618</v>
+        <v>8129707502.910976</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -665,7 +665,7 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>7358767498.515913</v>
+        <v>7366295661.447742</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -676,7 +676,7 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <v>7212440177.912173</v>
+        <v>7201156661.301756</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -687,7 +687,7 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <v>6662263144.838155</v>
+        <v>6393239550.256524</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -698,7 +698,7 @@
         <v>41</v>
       </c>
       <c r="C15">
-        <v>6051715601.171719</v>
+        <v>6062838470.026225</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -709,7 +709,7 @@
         <v>42</v>
       </c>
       <c r="C16">
-        <v>5127222348.481926</v>
+        <v>5137653575.173341</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -720,7 +720,7 @@
         <v>43</v>
       </c>
       <c r="C17">
-        <v>4765344038.656413</v>
+        <v>4779162188.46519</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -731,7 +731,7 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>4401359373.274726</v>
+        <v>4411624060.394475</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <v>3778981678.160348</v>
+        <v>3798056631.925484</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -753,7 +753,7 @@
         <v>46</v>
       </c>
       <c r="C20">
-        <v>3487123027.636964</v>
+        <v>3490685557.351138</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -764,7 +764,7 @@
         <v>47</v>
       </c>
       <c r="C21">
-        <v>3293326415.479542</v>
+        <v>3292730537.669017</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -775,7 +775,7 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <v>3275289772.452466</v>
+        <v>3281387518.287756</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -786,7 +786,7 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <v>3054902357.104695</v>
+        <v>3068338820.322841</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -797,7 +797,7 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <v>2777804281.923453</v>
+        <v>2737180784.141204</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -808,7 +808,7 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <v>2721418246.808467</v>
+        <v>2727302253.330137</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -819,7 +819,7 @@
         <v>52</v>
       </c>
       <c r="C26">
-        <v>2361333413.99097</v>
+        <v>2345172820.207559</v>
       </c>
     </row>
   </sheetData>

--- a/cryptos_market_cap.xlsx
+++ b/cryptos_market_cap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -34,70 +34,73 @@
     <t>BNB</t>
   </si>
   <si>
+    <t>Solana</t>
+  </si>
+  <si>
     <t>XRP</t>
   </si>
   <si>
-    <t>Solana</t>
-  </si>
-  <si>
     <t>Cardano</t>
   </si>
   <si>
+    <t>Avalanche</t>
+  </si>
+  <si>
     <t>Dogecoin</t>
   </si>
   <si>
     <t>TRON</t>
   </si>
   <si>
+    <t>Chainlink</t>
+  </si>
+  <si>
+    <t>Polkadot</t>
+  </si>
+  <si>
+    <t>Polygon</t>
+  </si>
+  <si>
     <t>Toncoin</t>
   </si>
   <si>
-    <t>Chainlink</t>
-  </si>
-  <si>
-    <t>Avalanche</t>
-  </si>
-  <si>
-    <t>Polygon</t>
-  </si>
-  <si>
-    <t>Polkadot</t>
-  </si>
-  <si>
-    <t>Wrapped Bitcoin</t>
+    <t>Internet Computer</t>
+  </si>
+  <si>
+    <t>Shiba Inu</t>
+  </si>
+  <si>
+    <t>Bitcoin Cash</t>
   </si>
   <si>
     <t>Litecoin</t>
   </si>
   <si>
-    <t>Shiba Inu</t>
-  </si>
-  <si>
-    <t>Bitcoin Cash</t>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>Cosmos</t>
+  </si>
+  <si>
+    <t>Stacks</t>
+  </si>
+  <si>
+    <t>Kaspa</t>
+  </si>
+  <si>
+    <t>Ethereum Classic</t>
   </si>
   <si>
     <t>UNUS SED LEO</t>
   </si>
   <si>
-    <t>OKB</t>
-  </si>
-  <si>
-    <t>Cosmos</t>
-  </si>
-  <si>
-    <t>Stellar</t>
-  </si>
-  <si>
-    <t>Monero</t>
-  </si>
-  <si>
-    <t>Kaspa</t>
-  </si>
-  <si>
-    <t>Ethereum Classic</t>
-  </si>
-  <si>
-    <t>Cronos</t>
+    <t>Optimism</t>
+  </si>
+  <si>
+    <t>NEAR Protocol</t>
+  </si>
+  <si>
+    <t>Aptos</t>
   </si>
   <si>
     <t>BTC-USD</t>
@@ -109,70 +112,73 @@
     <t>BNB-USD</t>
   </si>
   <si>
+    <t>SOL-USD</t>
+  </si>
+  <si>
     <t>XRP-USD</t>
   </si>
   <si>
-    <t>SOL-USD</t>
-  </si>
-  <si>
     <t>ADA-USD</t>
   </si>
   <si>
+    <t>AVAX-USD</t>
+  </si>
+  <si>
     <t>DOGE-USD</t>
   </si>
   <si>
     <t>TRX-USD</t>
   </si>
   <si>
+    <t>LINK-USD</t>
+  </si>
+  <si>
+    <t>DOT-USD</t>
+  </si>
+  <si>
+    <t>MATIC-USD</t>
+  </si>
+  <si>
     <t>TON-USD</t>
   </si>
   <si>
-    <t>LINK-USD</t>
-  </si>
-  <si>
-    <t>AVAX-USD</t>
-  </si>
-  <si>
-    <t>MATIC-USD</t>
-  </si>
-  <si>
-    <t>DOT-USD</t>
-  </si>
-  <si>
-    <t>WBTC-USD</t>
+    <t>ICP-USD</t>
+  </si>
+  <si>
+    <t>SHIB-USD</t>
+  </si>
+  <si>
+    <t>BCH-USD</t>
   </si>
   <si>
     <t>LTC-USD</t>
   </si>
   <si>
-    <t>SHIB-USD</t>
-  </si>
-  <si>
-    <t>BCH-USD</t>
+    <t>IMX-USD</t>
+  </si>
+  <si>
+    <t>ATOM-USD</t>
+  </si>
+  <si>
+    <t>STX-USD</t>
+  </si>
+  <si>
+    <t>KAS-USD</t>
+  </si>
+  <si>
+    <t>ETC-USD</t>
   </si>
   <si>
     <t>LEO-USD</t>
   </si>
   <si>
-    <t>OKB-USD</t>
-  </si>
-  <si>
-    <t>ATOM-USD</t>
-  </si>
-  <si>
-    <t>XLM-USD</t>
-  </si>
-  <si>
-    <t>XMR-USD</t>
-  </si>
-  <si>
-    <t>KAS-USD</t>
-  </si>
-  <si>
-    <t>ETC-USD</t>
-  </si>
-  <si>
-    <t>CRO-USD</t>
+    <t>OP-USD</t>
+  </si>
+  <si>
+    <t>NEAR-USD</t>
+  </si>
+  <si>
+    <t>APT-USD</t>
   </si>
 </sst>
 </file>
@@ -530,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,10 +558,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>728512470566.8444</v>
+        <v>1026594825027.154</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -563,10 +569,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>248811590451.5564</v>
+        <v>349267258622.0751</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -574,10 +580,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>35504205369.8035</v>
+        <v>52714162812.10786</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -585,10 +591,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>33258914658.41915</v>
+        <v>49355675814.67361</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -596,10 +602,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>23937474891.55854</v>
+        <v>30497927190.53495</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -607,10 +613,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>13483418638.21661</v>
+        <v>22411770859.05228</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -618,10 +624,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>10811222174.66723</v>
+        <v>14661261029.27745</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -629,10 +635,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>9026874927.757669</v>
+        <v>12380090353.65349</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -640,10 +646,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10">
-        <v>8165052830.440978</v>
+        <v>11941696475.44677</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -651,10 +657,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11">
-        <v>8129707502.910976</v>
+        <v>11652600349.04479</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -662,10 +668,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12">
-        <v>7366295661.447742</v>
+        <v>9989937906.719542</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -673,10 +679,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>7201156661.301756</v>
+        <v>9646521081.855909</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -684,10 +690,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14">
-        <v>6393239550.256524</v>
+        <v>7810798076.974212</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -695,10 +701,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15">
-        <v>6062838470.026225</v>
+        <v>6510861141.622561</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -706,10 +712,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16">
-        <v>5137653575.173341</v>
+        <v>5770473130.066522</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -717,10 +723,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>4779162188.46519</v>
+        <v>5303647237.126835</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -728,10 +734,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18">
-        <v>4411624060.394475</v>
+        <v>5265249190.828244</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -739,10 +745,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19">
-        <v>3798056631.925484</v>
+        <v>4481329247.344462</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -750,10 +756,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20">
-        <v>3490685557.351138</v>
+        <v>4116066286.919658</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -761,10 +767,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21">
-        <v>3292730537.669017</v>
+        <v>4106401631.978362</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -772,10 +778,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22">
-        <v>3281387518.287756</v>
+        <v>3919259001.106304</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -783,10 +789,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>3068338820.322841</v>
+        <v>3899843390.981063</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -794,10 +800,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24">
-        <v>2737180784.141204</v>
+        <v>3845412133.037552</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -805,10 +811,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25">
-        <v>2727302253.330137</v>
+        <v>3741222042.355077</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -816,10 +822,21 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26">
-        <v>2345172820.207559</v>
+        <v>3686120627.183552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>3678188372.321604</v>
       </c>
     </row>
   </sheetData>
